--- a/PLATINUM_FINAL_ok+good_130901_A+B+C.xlsx
+++ b/PLATINUM_FINAL_ok+good_130901_A+B+C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="3940" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GOLD_ok+good_130901_A+B+C" sheetId="1" r:id="rId1"/>
@@ -6708,7 +6708,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6752,7 +6752,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6765,6 +6764,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -6773,7 +6778,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6911,206 +6916,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7509,8 +7314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB493"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:U96"/>
+    <sheetView topLeftCell="X73" workbookViewId="0">
+      <selection activeCell="Z74" sqref="Z74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7519,15 +7324,15 @@
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="4.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="179.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="10.6640625" style="1" customWidth="1"/>
     <col min="10" max="14" width="2.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="10.6640625" style="1" customWidth="1"/>
     <col min="19" max="20" width="10.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="24.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="127.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="134.6640625" style="1" customWidth="1"/>
     <col min="24" max="24" width="10.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="251.33203125" style="1" customWidth="1"/>
@@ -7853,6 +7658,7 @@
       <c r="Z6" s="1" t="s">
         <v>811</v>
       </c>
+      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -8976,7 +8782,7 @@
       <c r="AA25"/>
       <c r="AB25"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -9007,24 +8813,24 @@
       <c r="Q26" t="s">
         <v>805</v>
       </c>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26" s="1" t="s">
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="X26" s="21">
+      <c r="X26" s="26">
         <v>41129</v>
       </c>
-      <c r="Y26" s="21">
+      <c r="Y26" s="26">
         <v>41415</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="6" t="s">
         <v>817</v>
       </c>
       <c r="AA26"/>
@@ -11624,7 +11430,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="72" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -11661,23 +11467,23 @@
       <c r="U72" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="V72" s="1" t="s">
+      <c r="V72" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="W72" s="1" t="s">
+      <c r="W72" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="X72" s="20">
+      <c r="X72" s="26">
         <v>40263</v>
       </c>
-      <c r="Y72" s="20">
+      <c r="Y72" s="26">
         <v>41430</v>
       </c>
-      <c r="Z72" s="1" t="s">
+      <c r="Z72" s="6" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="73" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -11714,23 +11520,23 @@
       <c r="U73" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="V73" s="1" t="s">
+      <c r="V73" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="W73" s="1" t="s">
+      <c r="W73" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="X73" s="20">
+      <c r="X73" s="26">
         <v>40264</v>
       </c>
-      <c r="Y73" s="20">
+      <c r="Y73" s="26">
         <v>41430</v>
       </c>
-      <c r="Z73" s="1" t="s">
+      <c r="Z73" s="6" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="74" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" customFormat="1" ht="240" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -11767,19 +11573,19 @@
       <c r="U74" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="V74" s="1" t="s">
+      <c r="V74" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="W74" s="1" t="s">
+      <c r="W74" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="X74" s="20">
+      <c r="X74" s="26">
         <v>40265</v>
       </c>
-      <c r="Y74" s="20">
+      <c r="Y74" s="26">
         <v>41430</v>
       </c>
-      <c r="Z74" s="7" t="s">
+      <c r="Z74" s="6" t="s">
         <v>812</v>
       </c>
     </row>
@@ -29032,7 +28838,7 @@
       <c r="B1" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -29087,7 +28893,7 @@
       <c r="B6" t="s">
         <v>821</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>330</v>
       </c>
     </row>
@@ -29109,7 +28915,7 @@
       <c r="B8" t="s">
         <v>821</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -29714,7 +29520,7 @@
       <c r="B63" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="21" t="s">
         <v>488</v>
       </c>
     </row>
@@ -30723,7 +30529,7 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PLATINUM_FINAL_ok+good_130901_A+B+C.xlsx
+++ b/PLATINUM_FINAL_ok+good_130901_A+B+C.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27713"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GOLD_ok+good_130901_A+B+C" sheetId="1" r:id="rId1"/>
@@ -6708,7 +6708,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6770,6 +6770,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -7314,8 +7315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB493"/>
   <sheetViews>
-    <sheetView topLeftCell="X73" workbookViewId="0">
-      <selection activeCell="Z74" sqref="Z74"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="V74" sqref="V74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7324,7 +7325,7 @@
     <col min="2" max="2" width="3.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="4.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="179.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.83203125" style="1" customWidth="1"/>
     <col min="7" max="9" width="10.6640625" style="1" customWidth="1"/>
     <col min="10" max="14" width="2.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -8782,7 +8783,7 @@
       <c r="AA25"/>
       <c r="AB25"/>
     </row>
-    <row r="26" spans="1:28" ht="409" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -8818,10 +8819,10 @@
       <c r="U26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V26" s="6" t="s">
+      <c r="V26" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="W26" s="6" t="s">
+      <c r="W26" s="1" t="s">
         <v>816</v>
       </c>
       <c r="X26" s="26">
@@ -8830,7 +8831,7 @@
       <c r="Y26" s="26">
         <v>41415</v>
       </c>
-      <c r="Z26" s="6" t="s">
+      <c r="Z26" s="1" t="s">
         <v>817</v>
       </c>
       <c r="AA26"/>
@@ -11430,7 +11431,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="72" spans="1:28" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -11467,23 +11468,23 @@
       <c r="U72" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="V72" s="6" t="s">
+      <c r="V72" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="W72" s="6" t="s">
+      <c r="W72" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="X72" s="26">
+      <c r="X72" s="27">
         <v>40263</v>
       </c>
-      <c r="Y72" s="26">
+      <c r="Y72" s="27">
         <v>41430</v>
       </c>
-      <c r="Z72" s="6" t="s">
+      <c r="Z72" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="73" spans="1:28" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -11520,23 +11521,23 @@
       <c r="U73" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="V73" s="6" t="s">
+      <c r="V73" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="W73" s="6" t="s">
+      <c r="W73" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="X73" s="26">
+      <c r="X73" s="27">
         <v>40264</v>
       </c>
-      <c r="Y73" s="26">
+      <c r="Y73" s="27">
         <v>41430</v>
       </c>
-      <c r="Z73" s="6" t="s">
+      <c r="Z73" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="74" spans="1:28" customFormat="1" ht="240" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -11573,19 +11574,19 @@
       <c r="U74" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="V74" s="6" t="s">
+      <c r="V74" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="W74" s="6" t="s">
+      <c r="W74" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="X74" s="26">
+      <c r="X74" s="27">
         <v>40265</v>
       </c>
-      <c r="Y74" s="26">
+      <c r="Y74" s="27">
         <v>41430</v>
       </c>
-      <c r="Z74" s="6" t="s">
+      <c r="Z74" s="1" t="s">
         <v>812</v>
       </c>
     </row>
@@ -30528,7 +30529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>

--- a/PLATINUM_FINAL_ok+good_130901_A+B+C.xlsx
+++ b/PLATINUM_FINAL_ok+good_130901_A+B+C.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9188" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9219" uniqueCount="909">
   <si>
     <t>simian</t>
   </si>
@@ -46598,8 +46598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="E520" sqref="E520"/>
+    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
+      <selection activeCell="D514" sqref="D514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46609,7 +46609,7 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.6640625" customWidth="1"/>
+    <col min="6" max="6" width="76.33203125" customWidth="1"/>
     <col min="7" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="106.1640625" customWidth="1"/>
@@ -56165,6 +56165,9 @@
       <c r="B472" t="s">
         <v>854</v>
       </c>
+      <c r="C472" t="s">
+        <v>762</v>
+      </c>
       <c r="E472" s="1"/>
       <c r="F472" t="s">
         <v>857</v>
@@ -56180,6 +56183,9 @@
       <c r="B473" t="s">
         <v>854</v>
       </c>
+      <c r="C473" t="s">
+        <v>762</v>
+      </c>
       <c r="E473" s="1"/>
       <c r="F473" t="s">
         <v>855</v>
@@ -56195,6 +56201,9 @@
       <c r="B474" t="s">
         <v>851</v>
       </c>
+      <c r="C474" t="s">
+        <v>823</v>
+      </c>
       <c r="E474" s="1"/>
       <c r="F474" t="s">
         <v>852</v>
@@ -56210,6 +56219,9 @@
       <c r="B475" t="s">
         <v>851</v>
       </c>
+      <c r="C475" t="s">
+        <v>823</v>
+      </c>
       <c r="E475" s="1"/>
       <c r="F475" t="s">
         <v>852</v>
@@ -56225,6 +56237,9 @@
       <c r="B476" t="s">
         <v>851</v>
       </c>
+      <c r="C476" t="s">
+        <v>823</v>
+      </c>
       <c r="E476" s="1"/>
       <c r="F476" t="s">
         <v>852</v>
@@ -56240,6 +56255,9 @@
       <c r="B477" t="s">
         <v>851</v>
       </c>
+      <c r="C477" t="s">
+        <v>823</v>
+      </c>
       <c r="E477" s="1"/>
       <c r="F477" t="s">
         <v>852</v>
@@ -56255,6 +56273,9 @@
       <c r="B478" t="s">
         <v>851</v>
       </c>
+      <c r="C478" t="s">
+        <v>823</v>
+      </c>
       <c r="E478" s="1"/>
       <c r="F478" t="s">
         <v>852</v>
@@ -56270,6 +56291,9 @@
       <c r="B479" t="s">
         <v>851</v>
       </c>
+      <c r="C479" t="s">
+        <v>823</v>
+      </c>
       <c r="E479" s="1"/>
       <c r="F479" t="s">
         <v>852</v>
@@ -56285,6 +56309,9 @@
       <c r="B480" t="s">
         <v>874</v>
       </c>
+      <c r="C480" t="s">
+        <v>762</v>
+      </c>
       <c r="E480" s="1"/>
       <c r="F480" t="s">
         <v>875</v>
@@ -56300,6 +56327,9 @@
       <c r="B481" t="s">
         <v>874</v>
       </c>
+      <c r="C481" t="s">
+        <v>762</v>
+      </c>
       <c r="E481" s="1"/>
       <c r="F481" t="s">
         <v>878</v>
@@ -56315,6 +56345,9 @@
       <c r="B482" t="s">
         <v>874</v>
       </c>
+      <c r="C482" t="s">
+        <v>762</v>
+      </c>
       <c r="E482" s="1"/>
       <c r="F482" t="s">
         <v>877</v>
@@ -56330,6 +56363,9 @@
       <c r="B483" t="s">
         <v>858</v>
       </c>
+      <c r="C483" t="s">
+        <v>762</v>
+      </c>
       <c r="E483" s="1"/>
       <c r="F483" t="s">
         <v>849</v>
@@ -56345,6 +56381,9 @@
       <c r="B484" t="s">
         <v>858</v>
       </c>
+      <c r="C484" t="s">
+        <v>762</v>
+      </c>
       <c r="E484" s="1"/>
       <c r="F484" t="s">
         <v>849</v>
@@ -56360,6 +56399,9 @@
       <c r="B485" t="s">
         <v>858</v>
       </c>
+      <c r="C485" t="s">
+        <v>762</v>
+      </c>
       <c r="E485" s="1"/>
       <c r="F485" t="s">
         <v>849</v>
@@ -56375,6 +56417,9 @@
       <c r="B486" t="s">
         <v>858</v>
       </c>
+      <c r="C486" t="s">
+        <v>762</v>
+      </c>
       <c r="E486" s="1"/>
       <c r="F486" t="s">
         <v>849</v>
@@ -56390,6 +56435,9 @@
       <c r="B487" t="s">
         <v>858</v>
       </c>
+      <c r="C487" t="s">
+        <v>762</v>
+      </c>
       <c r="E487" s="1"/>
       <c r="F487" t="s">
         <v>849</v>
@@ -56405,6 +56453,9 @@
       <c r="B488" t="s">
         <v>858</v>
       </c>
+      <c r="C488" t="s">
+        <v>762</v>
+      </c>
       <c r="E488" s="1"/>
       <c r="F488" t="s">
         <v>849</v>
@@ -56420,6 +56471,9 @@
       <c r="B489" t="s">
         <v>858</v>
       </c>
+      <c r="C489" t="s">
+        <v>762</v>
+      </c>
       <c r="E489" s="1"/>
       <c r="F489" t="s">
         <v>849</v>
@@ -56435,6 +56489,9 @@
       <c r="B490" t="s">
         <v>858</v>
       </c>
+      <c r="C490" t="s">
+        <v>762</v>
+      </c>
       <c r="E490" s="1"/>
       <c r="F490" t="s">
         <v>849</v>
@@ -56450,6 +56507,9 @@
       <c r="B491" t="s">
         <v>858</v>
       </c>
+      <c r="C491" t="s">
+        <v>762</v>
+      </c>
       <c r="E491" s="1"/>
       <c r="F491" t="s">
         <v>849</v>
@@ -56465,6 +56525,9 @@
       <c r="B492" t="s">
         <v>858</v>
       </c>
+      <c r="C492" t="s">
+        <v>762</v>
+      </c>
       <c r="E492" s="1"/>
       <c r="F492" t="s">
         <v>849</v>
@@ -56480,6 +56543,9 @@
       <c r="B493" t="s">
         <v>858</v>
       </c>
+      <c r="C493" t="s">
+        <v>762</v>
+      </c>
       <c r="E493" s="1"/>
       <c r="F493" t="s">
         <v>849</v>
@@ -56495,6 +56561,9 @@
       <c r="B494" t="s">
         <v>858</v>
       </c>
+      <c r="C494" t="s">
+        <v>762</v>
+      </c>
       <c r="E494" s="1"/>
       <c r="F494" t="s">
         <v>849</v>
@@ -56510,6 +56579,9 @@
       <c r="B495" t="s">
         <v>860</v>
       </c>
+      <c r="C495" t="s">
+        <v>762</v>
+      </c>
       <c r="E495" s="1"/>
       <c r="F495" t="s">
         <v>861</v>
@@ -56525,6 +56597,9 @@
       <c r="B496" t="s">
         <v>866</v>
       </c>
+      <c r="C496" t="s">
+        <v>762</v>
+      </c>
       <c r="F496" t="s">
         <v>867</v>
       </c>
@@ -56538,6 +56613,9 @@
       </c>
       <c r="B497" t="s">
         <v>889</v>
+      </c>
+      <c r="C497" t="s">
+        <v>762</v>
       </c>
       <c r="E497" s="1"/>
       <c r="F497" t="s">
@@ -56554,6 +56632,9 @@
       <c r="B498" t="s">
         <v>863</v>
       </c>
+      <c r="C498" t="s">
+        <v>762</v>
+      </c>
       <c r="E498" s="1"/>
       <c r="F498" t="s">
         <v>864</v>
@@ -56569,6 +56650,9 @@
       <c r="B499" t="s">
         <v>844</v>
       </c>
+      <c r="C499" t="s">
+        <v>764</v>
+      </c>
       <c r="E499" s="1"/>
       <c r="F499" t="s">
         <v>845</v>
@@ -56584,6 +56668,9 @@
       <c r="B500" t="s">
         <v>844</v>
       </c>
+      <c r="C500" t="s">
+        <v>764</v>
+      </c>
       <c r="E500" s="1"/>
       <c r="F500" t="s">
         <v>845</v>
@@ -56599,6 +56686,9 @@
       <c r="B501" t="s">
         <v>844</v>
       </c>
+      <c r="C501" t="s">
+        <v>764</v>
+      </c>
       <c r="E501" s="1"/>
       <c r="F501" t="s">
         <v>847</v>
@@ -56613,6 +56703,9 @@
       </c>
       <c r="B502" t="s">
         <v>844</v>
+      </c>
+      <c r="C502" t="s">
+        <v>764</v>
       </c>
       <c r="E502" s="1"/>
       <c r="F502" t="s">
